--- a/Expiry Tracker System.xlsx
+++ b/Expiry Tracker System.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Expiry tracker" sheetId="1" r:id="rId1"/>
@@ -1266,22 +1266,22 @@
   </sheetPr>
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>113</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>180</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="15">
         <v>1</v>
       </c>
@@ -1337,10 +1337,10 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H31" ca="1" si="0">IF(F4&lt;&gt;"", F4-TODAY(), "")</f>
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <v>2</v>
       </c>
@@ -1362,10 +1362,10 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>3</v>
       </c>
@@ -1387,10 +1387,10 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>4</v>
       </c>
@@ -1412,10 +1412,10 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <v>5</v>
       </c>
@@ -1437,10 +1437,10 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="15">
         <v>6</v>
       </c>
@@ -1462,13 +1462,13 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1009</v>
+        <v>951</v>
       </c>
       <c r="J9" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="15">
         <v>7</v>
       </c>
@@ -1490,10 +1490,10 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="15">
         <v>8</v>
       </c>
@@ -1515,10 +1515,10 @@
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <v>9</v>
       </c>
@@ -1540,10 +1540,10 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <v>10</v>
       </c>
@@ -1565,10 +1565,10 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="15">
         <v>12</v>
       </c>
@@ -1590,10 +1590,10 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="15">
         <v>13</v>
       </c>
@@ -1615,10 +1615,10 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="15">
         <v>14</v>
       </c>
@@ -1640,10 +1640,10 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="15">
         <v>15</v>
       </c>
@@ -1665,10 +1665,10 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <v>16</v>
       </c>
@@ -1690,10 +1690,10 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>676</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="15">
         <v>17</v>
       </c>
@@ -1715,10 +1715,10 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>676</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>18</v>
       </c>
@@ -1740,10 +1740,10 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>19</v>
       </c>
@@ -1765,10 +1765,10 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>511</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
         <v>20</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="15">
         <v>21</v>
       </c>
@@ -1815,10 +1815,10 @@
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
         <v>22</v>
       </c>
@@ -1840,10 +1840,10 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
         <v>23</v>
       </c>
@@ -1863,10 +1863,10 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
         <v>24</v>
       </c>
@@ -1888,10 +1888,10 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <v>26</v>
       </c>
@@ -1911,10 +1911,10 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="15">
         <v>27</v>
       </c>
@@ -1934,10 +1934,10 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>675</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="15">
         <v>28</v>
       </c>
@@ -1959,10 +1959,10 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
         <v>29</v>
       </c>
@@ -1984,10 +1984,10 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="15">
         <v>30</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2021,7 +2021,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2030,7 +2030,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="12"/>
     </row>
   </sheetData>
@@ -2073,23 +2073,23 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
     </row>
   </sheetData>
@@ -2393,16 +2393,16 @@
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2631,22 +2631,22 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>

--- a/Expiry Tracker System.xlsx
+++ b/Expiry Tracker System.xlsx
@@ -1267,7 +1267,7 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H31" ca="1" si="0">IF(F4&lt;&gt;"", F4-TODAY(), "")</f>
-        <v>261</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>951</v>
+        <v>909</v>
       </c>
       <c r="J9" t="s">
         <v>174</v>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1215</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1399</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1267</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1155</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>618</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>618</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-112</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>617</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1348</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-112</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>617</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>983</v>
+        <v>941</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1349</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Expiry Tracker System.xlsx
+++ b/Expiry Tracker System.xlsx
@@ -1267,7 +1267,7 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1277,7 @@
     <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H31" ca="1" si="0">IF(F4&lt;&gt;"", F4-TODAY(), "")</f>
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="G6" s="16" t="str">
         <f ca="1">IF(H6&lt;0, "Expired", IF(H6&lt;=30, "Expiring Soon", "Valid"))</f>
-        <v>Valid</v>
+        <v>Expiring Soon</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="J9" t="s">
         <v>174</v>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1173</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1511,11 +1511,11 @@
       </c>
       <c r="G11" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Valid</v>
+        <v>Expiring Soon</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1357</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1225</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1113</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1811,11 +1811,11 @@
       </c>
       <c r="G23" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Valid</v>
+        <v>Expiring Soon</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-154</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1306</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-154</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1307</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/Expiry Tracker System.xlsx
+++ b/Expiry Tracker System.xlsx
@@ -1266,8 +1266,8 @@
   </sheetPr>
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Expiry Tracker System.xlsx
+++ b/Expiry Tracker System.xlsx
@@ -1266,8 +1266,8 @@
   </sheetPr>
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H31" ca="1" si="0">IF(F4&lt;&gt;"", F4-TODAY(), "")</f>
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1383,11 +1383,11 @@
       </c>
       <c r="G6" s="16" t="str">
         <f ca="1">IF(H6&lt;0, "Expired", IF(H6&lt;=30, "Expiring Soon", "Valid"))</f>
-        <v>Expiring Soon</v>
+        <v>Expired</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="J9" t="s">
         <v>174</v>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1163</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1511,11 +1511,11 @@
       </c>
       <c r="G11" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Expiring Soon</v>
+        <v>Expired</v>
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1536,11 +1536,11 @@
       </c>
       <c r="G12" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Valid</v>
+        <v>Expiring Soon</v>
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1561,11 +1561,11 @@
       </c>
       <c r="G13" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Valid</v>
+        <v>Expiring Soon</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1586,11 +1586,11 @@
       </c>
       <c r="G14" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Valid</v>
+        <v>Expiring Soon</v>
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1347</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1215</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1103</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>566</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>566</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>401</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-164</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>565</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1296</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-164</v>
+        <v>-192</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>565</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>931</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1297</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/Expiry Tracker System.xlsx
+++ b/Expiry Tracker System.xlsx
@@ -1266,8 +1266,9 @@
   </sheetPr>
   <dimension ref="B2:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,7 +1338,7 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H31" ca="1" si="0">IF(F4&lt;&gt;"", F4-TODAY(), "")</f>
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1362,7 +1363,7 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1387,7 +1388,7 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1412,7 +1413,7 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1437,7 +1438,7 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1462,7 +1463,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="J9" t="s">
         <v>174</v>
@@ -1490,7 +1491,7 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1135</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1515,7 +1516,7 @@
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1540,7 +1541,7 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1565,7 +1566,7 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1590,7 +1591,7 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1615,7 +1616,7 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1319</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1640,7 +1641,7 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1665,7 +1666,7 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1690,7 +1691,7 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1715,7 +1716,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,7 +1741,7 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1765,7 +1766,7 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1804,18 +1805,18 @@
         <v>171</v>
       </c>
       <c r="E23" s="17">
-        <v>45485</v>
+        <v>45851</v>
       </c>
       <c r="F23" s="17">
-        <v>45849</v>
+        <v>46215</v>
       </c>
       <c r="G23" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Expiring Soon</v>
+        <v>Valid</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1840,7 +1841,7 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-192</v>
+        <v>-202</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1863,7 +1864,7 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1888,7 +1889,7 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1268</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1911,7 +1912,7 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-192</v>
+        <v>-202</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1934,7 +1935,7 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1959,7 +1960,7 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1984,7 +1985,7 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1269</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/Expiry Tracker System.xlsx
+++ b/Expiry Tracker System.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="183">
   <si>
     <t>Description</t>
   </si>
@@ -800,6 +800,12 @@
   </si>
   <si>
     <t>SN</t>
+  </si>
+  <si>
+    <t>Pharma Licence</t>
+  </si>
+  <si>
+    <t>Doctor payment</t>
   </si>
 </sst>
 </file>
@@ -908,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -965,12 +971,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1267,8 +1296,8 @@
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,7 +1367,7 @@
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H31" ca="1" si="0">IF(F4&lt;&gt;"", F4-TODAY(), "")</f>
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1363,7 +1392,7 @@
       </c>
       <c r="H5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1388,7 +1417,7 @@
       </c>
       <c r="H6" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-14</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1413,7 +1442,7 @@
       </c>
       <c r="H7" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1438,7 +1467,7 @@
       </c>
       <c r="H8" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1463,7 +1492,7 @@
       </c>
       <c r="H9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="J9" t="s">
         <v>174</v>
@@ -1491,7 +1520,7 @@
       </c>
       <c r="H10" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1125</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1516,7 +1545,7 @@
       </c>
       <c r="H11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-11</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1541,7 +1570,7 @@
       </c>
       <c r="H12" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1566,7 +1595,7 @@
       </c>
       <c r="H13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1591,7 +1620,7 @@
       </c>
       <c r="H14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1616,7 +1645,7 @@
       </c>
       <c r="H15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1309</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1641,7 +1670,7 @@
       </c>
       <c r="H16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1177</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1666,7 +1695,7 @@
       </c>
       <c r="H17" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1691,7 +1720,7 @@
       </c>
       <c r="H18" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1716,7 +1745,7 @@
       </c>
       <c r="H19" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1741,7 +1770,7 @@
       </c>
       <c r="H20" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1766,7 +1795,7 @@
       </c>
       <c r="H21" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1816,7 +1845,7 @@
       </c>
       <c r="H23" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1841,7 +1870,7 @@
       </c>
       <c r="H24" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-202</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1864,7 +1893,7 @@
       </c>
       <c r="H25" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1889,7 +1918,7 @@
       </c>
       <c r="H26" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1258</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1912,7 +1941,7 @@
       </c>
       <c r="H27" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-202</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1935,7 +1964,7 @@
       </c>
       <c r="H28" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1960,7 +1989,7 @@
       </c>
       <c r="H29" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1985,7 +2014,7 @@
       </c>
       <c r="H30" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1259</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2014,13 +2043,29 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="B32" s="20">
+        <v>31</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" s="22">
+        <v>45839</v>
+      </c>
+      <c r="F32" s="22">
+        <v>46203</v>
+      </c>
+      <c r="G32" s="21" t="str">
+        <f t="shared" ref="G32" ca="1" si="2">IF(H32&lt;0, "Expired", IF(H32&lt;=30, "Expiring Soon", "Valid"))</f>
+        <v>Valid</v>
+      </c>
+      <c r="H32" s="21">
+        <f t="shared" ref="H32" ca="1" si="3">IF(F32&lt;&gt;"", F32-TODAY(), "")</f>
+        <v>336</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
@@ -2055,12 +2100,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H31">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
